--- a/doc/StageProjet.xlsx
+++ b/doc/StageProjet.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\formtationDotNet\stageProjet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\formtationDotNet\StageM2i\ProjetIntranet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Profils" sheetId="1" r:id="rId1"/>
     <sheet name="lien git" sheetId="2" r:id="rId2"/>
+    <sheet name="tables" sheetId="3" r:id="rId3"/>
+    <sheet name="Planning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Collaborateur</t>
   </si>
@@ -100,12 +102,63 @@
   <si>
     <t>https://github.com/YannDutch/ProjetIntranet.git</t>
   </si>
+  <si>
+    <t>Collaborateurs</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>dateNaissance</t>
+  </si>
+  <si>
+    <t>matricule</t>
+  </si>
+  <si>
+    <t>Mdp</t>
+  </si>
+  <si>
+    <t>idCollab</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string(50)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>nomColonne</t>
+  </si>
+  <si>
+    <t>TypeColonne</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Création de tables</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>Méziane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +174,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,12 +210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -645,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -661,4 +730,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44617</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44619</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44620</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44621</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44622</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44623</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44624</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44625</v>
+      </c>
+      <c r="K3" s="4">
+        <v>44626</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44627</v>
+      </c>
+      <c r="M3" s="4">
+        <v>44628</v>
+      </c>
+      <c r="N3" s="4">
+        <v>44629</v>
+      </c>
+      <c r="O3" s="4">
+        <v>44630</v>
+      </c>
+      <c r="P3" s="4">
+        <v>44631</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>44632</v>
+      </c>
+      <c r="R3" s="4">
+        <v>44633</v>
+      </c>
+      <c r="S3" s="4">
+        <v>44634</v>
+      </c>
+      <c r="T3" s="4">
+        <v>44635</v>
+      </c>
+      <c r="U3" s="4">
+        <v>44636</v>
+      </c>
+      <c r="V3" s="4">
+        <v>44637</v>
+      </c>
+      <c r="W3" s="4">
+        <v>44638</v>
+      </c>
+      <c r="X3" s="4">
+        <v>44639</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>44640</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>44641</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>44642</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>44643</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>44644</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>